--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,17 +247,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29299336930166103</v>
+        <v>0.29298021072663094</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29318863334904194</v>
+        <v>0.29317661668421197</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0015493891792760946</v>
+        <v>-0.0015335081640257759</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00013008596023444561</v>
+        <v>0.00013010974295823611</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00069256668513732094</v>
+        <v>-0.00067352302915938138</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00035848353462729522</v>
+        <v>0.00035872128630871285</v>
       </c>
       <c r="H3" s="0">
-        <v>1.9689340265468536e-05</v>
+        <v>2.048088543320124e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0010229584880778685</v>
+        <v>-0.0010259698080350235</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-8.0952134384748575e-07</v>
+        <v>-8.0954189429771617e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29218803637011481</v>
+        <v>0.29203501857777403</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00046555619470803149</v>
+        <v>-0.00070758237697239644</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>3.9710990702621405e-05</v>
+        <v>3.9627436011425571e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-3.6277328911561433e-06</v>
+        <v>-3.8981150668913745e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>2.333047752915332e-05</v>
+        <v>2.3144682799245333e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00055648533239021432</v>
+        <v>-0.00055658038625692769</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.2036904724911295e-05</v>
+        <v>-5.3049076633140019e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>7.9355912581124954e-06</v>
+        <v>7.9361071356198742e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29129086866056847</v>
+        <v>0.29127725969206092</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0024691524817079596</v>
+        <v>0.002765636375289759</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0029036362771925539</v>
+        <v>-0.0029113178691512623</v>
       </c>
       <c r="E5" s="0">
-        <v>-5.5413769262752612e-05</v>
+        <v>-5.5646817101544563e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00089502654688519017</v>
+        <v>-0.00090564235870058758</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00090292959448485513</v>
+        <v>-0.00090341091640433815</v>
       </c>
       <c r="H5" s="0">
-        <v>-9.2364598235750514e-05</v>
+        <v>-9.2908587485237404e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0001976809243388368</v>
+        <v>-0.00019745866577375724</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.3307136703666345e-07</v>
+        <v>-1.3364919376757101e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31090077481153738</v>
+        <v>0.31088163373971722</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021068234208925146</v>
+        <v>0.021009362994774343</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-9.7982868181653208e-05</v>
+        <v>-9.7997446525706171e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.9005252644503776e-05</v>
+        <v>-5.8888913486475864e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.0516165738898756e-05</v>
+        <v>-5.0743130715847663e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0016602581883645232</v>
+        <v>-0.001665221014360267</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-5.5675720145309526e-08</v>
+        <v>-5.6457485131389262e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.3099450262732224</v>
+        <v>0.30991819730845743</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0019186050746044525</v>
+        <v>-0.0019334081979140102</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00018068584259621463</v>
+        <v>-0.0001771015270935526</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0011200046304438733</v>
+        <v>-0.0011252194570489779</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00064844005092114416</v>
+        <v>0.00064981913571657789</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.2818300965667811e-05</v>
+        <v>9.2734453176106433e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>1.6743943303532127e-06</v>
+        <v>1.6745570269871557e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27759847564146561</v>
+        <v>0.27780740056458497</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.024415513051138975</v>
+        <v>-0.024279159955462121</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>5.0498558738219872e-05</v>
+        <v>5.0521082912142897e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00035748188793766408</v>
+        <v>-0.00035747762843073923</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>1.3614393540001478e-05</v>
+        <v>1.3645835160552781e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0012242589185994979</v>
+        <v>0.0012268788941025065</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-8.4608071249547834e-05</v>
+        <v>-8.4607816369708377e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.26496849060218247</v>
+        <v>0.26516036368341189</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00032815173983379156</v>
+        <v>0.00033285024088145344</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.002145314851351385</v>
+        <v>-0.0021512140659112142</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0058264699746329723</v>
+        <v>-0.0058303002319600138</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00057162115221371106</v>
+        <v>0.00056850405853453643</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00018355630504851732</v>
+        <v>-0.00018314071541136747</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00028328743789542496</v>
+        <v>-0.00028317286345816759</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1.5251010880290572e-06</v>
+        <v>1.5254413859855376e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34556446088300408</v>
+        <v>0.34635709412714677</v>
       </c>
       <c r="C10" s="0">
-        <v>0.049946382533291998</v>
+        <v>0.049974508203853345</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>2.4262099492071607e-05</v>
+        <v>2.4252246496080204e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00036396879258876355</v>
+        <v>-0.00036401618263964353</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>2.4721551838843697e-05</v>
+        <v>2.4716292608721851e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00039176379928984129</v>
+        <v>-0.00038749975909480207</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021920792424737949</v>
+        <v>-0.0021969296395597834</v>
       </c>
       <c r="K10" s="0">
-        <v>1.0139661346664219e-06</v>
+        <v>1.019353844444737e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34160776548580846</v>
+        <v>0.34239722381349857</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0018255614723232606</v>
+        <v>-0.0018019612974575919</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00062764954194027844</v>
+        <v>0.00063028000555882802</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.00014764186790193091</v>
+        <v>-0.00016155366412138586</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0013987663589442698</v>
+        <v>0.001402030317583349</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00012391855408565164</v>
+        <v>0.00012302180436477838</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0046750832474687582</v>
+        <v>-0.0046862308092902628</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-6.7504325695910694e-07</v>
+        <v>-6.7495244548965161e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.28573340723293345</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.032690008909819795</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>7.4005257755412981e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>9.4637375727096925e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-9.3549170665802022e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00065367093245329347</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>2.5689400450779054e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,12 +388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29298021072663094</v>
+        <v>0.29297731379899161</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29317661668421197</v>
+        <v>0.29317464434091306</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0015335081640257759</v>
+        <v>-0.0015493761845169968</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00013010974295823611</v>
+        <v>0.00013006936191063082</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00067352302915938138</v>
+        <v>-0.00068673500349236672</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00035872128630871285</v>
+        <v>0.00035941045553983622</v>
       </c>
       <c r="H3" s="0">
-        <v>2.048088543320124e-05</v>
+        <v>1.9899590458539464e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0010259698080350235</v>
+        <v>-0.0010304193294667417</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-8.0954189429771617e-07</v>
+        <v>-8.0955960429784923e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29203501857777403</v>
+        <v>0.29202433739241296</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00070758237697239644</v>
+        <v>-0.00060651704521423177</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>3.9627436011425571e-05</v>
+        <v>3.9651755263006124e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-3.8981150668913745e-06</v>
+        <v>-3.8105156104086763e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>2.3144682799245333e-05</v>
+        <v>2.3020731959910787e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00055658038625692769</v>
+        <v>-0.00055910965568766672</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.3049076633140019e-05</v>
+        <v>-5.4753457930410336e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>7.9361071356198742e-06</v>
+        <v>7.9341869795857001e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29127725969206092</v>
+        <v>0.29120110658448317</v>
       </c>
       <c r="C5" s="0">
-        <v>0.002765636375289759</v>
+        <v>0.0025131314752010235</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0029113178691512623</v>
+        <v>-0.002895000000228673</v>
       </c>
       <c r="E5" s="0">
-        <v>-5.5646817101544563e-05</v>
+        <v>-5.5933210470712068e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00090564235870058758</v>
+        <v>-0.000894611131008033</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00090341091640433815</v>
+        <v>-0.00090728298580546377</v>
       </c>
       <c r="H5" s="0">
-        <v>-9.2908587485237404e-05</v>
+        <v>-9.240465254894628e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00019745866577375724</v>
+        <v>-0.00019733426387333303</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.3364919376757101e-07</v>
+        <v>-1.3350214828067308e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31088163373971722</v>
+        <v>0.31100512569220073</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021009362994774343</v>
+        <v>0.021270848273257002</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-9.7997446525706171e-05</v>
+        <v>-9.8005346943228942e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.8888913486475864e-05</v>
+        <v>-5.8646452168096863e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.0743130715847663e-05</v>
+        <v>-5.0468771088419839e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.001665221014360267</v>
+        <v>-0.0016642618856178462</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-5.6457485131389262e-08</v>
+        <v>-5.8187720253233266e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.30991819730845743</v>
+        <v>0.31004340390680957</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0019334081979140102</v>
+        <v>-0.0019312535891006523</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0001771015270935526</v>
+        <v>-0.00017057604828534938</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0011252194570489779</v>
+        <v>-0.0011129290723437</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00064981913571657789</v>
+        <v>0.00065185476850506817</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.2734453176106433e-05</v>
+        <v>9.2606591539974828e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>1.6745570269871557e-06</v>
+        <v>1.6745441956400597e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27780740056458497</v>
+        <v>0.2767452737543421</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.024279159955462121</v>
+        <v>-0.024654535434113681</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>5.0521082912142897e-05</v>
+        <v>5.0605977037059833e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00035747762843073923</v>
+        <v>-0.00035765209818800392</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>1.3645835160552781e-05</v>
+        <v>1.3783762204908172e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0012268788941025065</v>
+        <v>0.0012304289237953247</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-8.4607816369708377e-05</v>
+        <v>-8.4602343198902918e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.26516036368341189</v>
+        <v>0.26417986114385683</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00033285024088145344</v>
+        <v>0.00030821144945266288</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0021512140659112142</v>
+        <v>-0.0021579945465219105</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0058303002319600138</v>
+        <v>-0.0058398625147197169</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00056850405853453643</v>
+        <v>0.00057187636211044268</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00018314071541136747</v>
+        <v>-0.00018350362965007132</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00028317286345816759</v>
+        <v>-0.00028280000764354995</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1.5254413859855376e-06</v>
+        <v>1.5236948877062062e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34635709412714677</v>
+        <v>0.34594513633995227</v>
       </c>
       <c r="C10" s="0">
-        <v>0.049974508203853345</v>
+        <v>0.050269649778923127</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>2.4252246496080204e-05</v>
+        <v>2.4121183090390903e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00036401618263964353</v>
+        <v>-0.00036652076130454264</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>2.4716292608721851e-05</v>
+        <v>2.4681665155191949e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00038749975909480207</v>
+        <v>-0.00039206888740611048</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021969296395597834</v>
+        <v>-0.0021578444313040562</v>
       </c>
       <c r="K10" s="0">
-        <v>1.019353844444737e-06</v>
+        <v>1.0085019158667663e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34239722381349857</v>
+        <v>0.34200066556114139</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0018019612974575919</v>
+        <v>-0.0019446695243256515</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00063028000555882802</v>
+        <v>0.00062178672724817155</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.00016155366412138586</v>
+        <v>-0.00024151772913856269</v>
       </c>
       <c r="G11" s="0">
-        <v>0.001402030317583349</v>
+        <v>0.0014110748973652498</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00012302180436477838</v>
+        <v>0.00011956436617780326</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0046862308092902628</v>
+        <v>-0.0047032576021109988</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-6.7495244548965161e-07</v>
+        <v>-6.7502927258988876e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.28573340723293345</v>
+        <v>0.28208419038332572</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.032690008909819795</v>
+        <v>-0.044254167337304667</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>7.4005257755412981e-05</v>
+        <v>8.2276395147774767e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>9.4637375727096925e-06</v>
+        <v>0.0015005192912172411</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-9.3549170665802022e-06</v>
+        <v>0.00042013006038343621</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00065367093245329347</v>
+        <v>0.0044212615601252605</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>2.5689400450779054e-06</v>
+        <v>1.4969215981208706e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.12622571297830118</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.061511028970385059</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0050080078433825913</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.00203971029082211</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0012409057472345007</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00055303075331266391</v>
+      </c>
+      <c r="I13" s="0">
+        <v>8.5657500550047507e-05</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>8.3099105443906751e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.00757854133511765</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.17230765138657861</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>3.2331676332663796e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-1.4378898445320194e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-6.987701655182399e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.021992650594572134</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-7.1178724561637985e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29297731379899161</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29317464434091306</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29202433739241296</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29120110658448317</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.31100512569220073</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.31004340390680957</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.2767452737543421</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.26417986114385683</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.34594513633995227</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.34200066556114139</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.28208419038332572</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.12622571297830118</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.00757854133511765</v>
+        <v>0.046696617672395219</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.17230765138657861</v>
+        <v>-0.14847292733302322</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>3.2331676332663796e-05</v>
+        <v>1.8074312201143308e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-1.4378898445320194e-05</v>
+        <v>-0.00040189839647866298</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-6.987701655182399e-06</v>
+        <v>-0.0027531605414994661</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.021992650594572134</v>
+        <v>-0.0088263747992011719</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-7.1178724561637985e-07</v>
+        <v>-0.004901926077636648</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.11953087705181314</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.11071604150742456</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0033110856074118089</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0052155149968745543</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.010926288016982477</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-1.3482480758220117e-06</v>
       </c>
     </row>
   </sheetData>
